--- a/CLMebAddNew/Excelfiles/Config.xlsx
+++ b/CLMebAddNew/Excelfiles/Config.xlsx
@@ -28,7 +28,7 @@
     <t>Timeout</t>
   </si>
   <si>
-    <t>Chrome</t>
+    <t>IE</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CLMebAddNew/Excelfiles/Config.xlsx
+++ b/CLMebAddNew/Excelfiles/Config.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301A49EC-EC92-422E-B841-9A755BB92845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,20 +23,20 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://10.74.11.171/CareLynx/LoginPage.aspx</t>
-  </si>
-  <si>
     <t>Timeout</t>
   </si>
   <si>
     <t>IE</t>
   </si>
+  <si>
+    <t>http://10.74.11.176/CareLynx/LoginPage.aspx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +48,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,15 +93,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -184,6 +196,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -219,6 +248,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,11 +440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,27 +458,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{62224EEA-1126-4C0B-A055-2F717E9283C0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>